--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value847.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value847.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7672715626378145</v>
+        <v>0.738753616809845</v>
       </c>
       <c r="B1">
-        <v>1.684979402517359</v>
+        <v>1.080227136611938</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.446850299835205</v>
       </c>
       <c r="D1">
-        <v>2.22896589719041</v>
+        <v>3.774163484573364</v>
       </c>
       <c r="E1">
-        <v>1.433967410274091</v>
+        <v>2.018654346466064</v>
       </c>
     </row>
   </sheetData>
